--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -4279,10 +4279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111635437</v>
+        <v>111634867</v>
       </c>
       <c r="B34" t="n">
-        <v>89845</v>
+        <v>73696</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4291,25 +4291,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1209</v>
+        <v>6440</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539973.573864806</v>
+        <v>539871.8034722162</v>
       </c>
       <c r="R34" t="n">
-        <v>7198369.416147546</v>
+        <v>7198349.800304586</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4379,22 +4379,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111634859</v>
+        <v>111635419</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4407,21 +4407,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539847.161346367</v>
+        <v>539844.8100177459</v>
       </c>
       <c r="R35" t="n">
-        <v>7198348.622951495</v>
+        <v>7198365.57640036</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4491,22 +4491,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111635461</v>
+        <v>111634866</v>
       </c>
       <c r="B36" t="n">
-        <v>89590</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539846.9353019162</v>
+        <v>539873.9909718054</v>
       </c>
       <c r="R36" t="n">
-        <v>7198365.604689348</v>
+        <v>7198345.158619706</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4603,22 +4603,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111635413</v>
+        <v>111634859</v>
       </c>
       <c r="B37" t="n">
-        <v>89369</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4627,25 +4627,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539850.8116781802</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R37" t="n">
-        <v>7198361.834730743</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4715,22 +4715,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111635419</v>
+        <v>111635499</v>
       </c>
       <c r="B38" t="n">
-        <v>89405</v>
+        <v>85715</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4743,21 +4743,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4767,10 +4767,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539844.8100177459</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R38" t="n">
-        <v>7198365.57640036</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4839,10 +4839,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111635445</v>
+        <v>111634868</v>
       </c>
       <c r="B39" t="n">
-        <v>89686</v>
+        <v>78612</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4851,25 +4851,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>658</v>
+        <v>6464</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4879,10 +4879,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539972.1173992374</v>
+        <v>539976.4302002029</v>
       </c>
       <c r="R39" t="n">
-        <v>7198351.138093079</v>
+        <v>7198378.371244119</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4939,22 +4939,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111634868</v>
+        <v>111634869</v>
       </c>
       <c r="B40" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4963,25 +4963,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539976.4302002029</v>
+        <v>539972.5933666634</v>
       </c>
       <c r="R40" t="n">
-        <v>7198378.371244119</v>
+        <v>7198379.169240371</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5175,10 +5175,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111634865</v>
+        <v>111635444</v>
       </c>
       <c r="B42" t="n">
-        <v>90087</v>
+        <v>89686</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5187,25 +5187,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3298</v>
+        <v>658</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539879.8909062841</v>
+        <v>539849.8711390977</v>
       </c>
       <c r="R42" t="n">
-        <v>7198349.058794393</v>
+        <v>7198368.616090678</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5275,19 +5275,19 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111634869</v>
+        <v>111635452</v>
       </c>
       <c r="B43" t="n">
         <v>78578</v>
@@ -5327,10 +5327,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539972.5933666634</v>
+        <v>539861.2921981018</v>
       </c>
       <c r="R43" t="n">
-        <v>7198379.169240371</v>
+        <v>7198404.860384831</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5387,22 +5387,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111635444</v>
+        <v>111635437</v>
       </c>
       <c r="B44" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5411,25 +5411,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5439,10 +5439,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539849.8711390977</v>
+        <v>539973.573864806</v>
       </c>
       <c r="R44" t="n">
-        <v>7198368.616090678</v>
+        <v>7198369.416147546</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5511,10 +5511,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111635452</v>
+        <v>111634865</v>
       </c>
       <c r="B45" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5523,25 +5523,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5551,10 +5551,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539861.2921981018</v>
+        <v>539879.8909062841</v>
       </c>
       <c r="R45" t="n">
-        <v>7198404.860384831</v>
+        <v>7198349.058794393</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5611,22 +5611,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111634866</v>
+        <v>111635461</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>89590</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>48</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539873.9909718054</v>
+        <v>539846.9353019162</v>
       </c>
       <c r="R46" t="n">
-        <v>7198345.158619706</v>
+        <v>7198365.604689348</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5723,22 +5723,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111635422</v>
+        <v>111635413</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5747,43 +5747,38 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539953.4033757704</v>
+        <v>539850.8116781802</v>
       </c>
       <c r="R47" t="n">
-        <v>7198319.890847754</v>
+        <v>7198361.834730743</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5810,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5820,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5852,10 +5847,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111635499</v>
+        <v>111635445</v>
       </c>
       <c r="B48" t="n">
-        <v>85715</v>
+        <v>89686</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5868,21 +5863,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>510</v>
+        <v>658</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5887,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>540009.9192712342</v>
+        <v>539972.1173992374</v>
       </c>
       <c r="R48" t="n">
-        <v>7198353.766191677</v>
+        <v>7198351.138093079</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5922,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5932,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5964,10 +5959,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111634867</v>
+        <v>111635422</v>
       </c>
       <c r="B49" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5980,34 +5975,39 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539871.8034722162</v>
+        <v>539953.4033757704</v>
       </c>
       <c r="R49" t="n">
-        <v>7198349.800304586</v>
+        <v>7198319.890847754</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6064,12 +6064,12 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -4279,10 +4279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111634867</v>
+        <v>111634859</v>
       </c>
       <c r="B34" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4295,21 +4295,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539871.8034722162</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R34" t="n">
-        <v>7198349.800304586</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4391,10 +4391,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111635419</v>
+        <v>111635437</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4403,25 +4403,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539844.8100177459</v>
+        <v>539973.573864806</v>
       </c>
       <c r="R35" t="n">
-        <v>7198365.57640036</v>
+        <v>7198369.416147546</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4503,7 +4503,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111634866</v>
+        <v>111635489</v>
       </c>
       <c r="B36" t="n">
         <v>77515</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539873.9909718054</v>
+        <v>539945.9506927577</v>
       </c>
       <c r="R36" t="n">
-        <v>7198345.158619706</v>
+        <v>7198336.776317291</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4603,22 +4603,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111634859</v>
+        <v>111634867</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4631,21 +4631,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539847.161346367</v>
+        <v>539871.8034722162</v>
       </c>
       <c r="R37" t="n">
-        <v>7198348.622951495</v>
+        <v>7198349.800304586</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4727,10 +4727,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111635499</v>
+        <v>111635461</v>
       </c>
       <c r="B38" t="n">
-        <v>85715</v>
+        <v>89590</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4739,25 +4739,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>510</v>
+        <v>48</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4767,10 +4767,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>540009.9192712342</v>
+        <v>539846.9353019162</v>
       </c>
       <c r="R38" t="n">
-        <v>7198353.766191677</v>
+        <v>7198365.604689348</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4839,10 +4839,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111634868</v>
+        <v>111635419</v>
       </c>
       <c r="B39" t="n">
-        <v>78612</v>
+        <v>89405</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4851,25 +4851,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6464</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4879,10 +4879,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539976.4302002029</v>
+        <v>539844.8100177459</v>
       </c>
       <c r="R39" t="n">
-        <v>7198378.371244119</v>
+        <v>7198365.57640036</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4939,22 +4939,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111634869</v>
+        <v>111635413</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4963,25 +4963,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539972.5933666634</v>
+        <v>539850.8116781802</v>
       </c>
       <c r="R40" t="n">
-        <v>7198379.169240371</v>
+        <v>7198361.834730743</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5051,22 +5051,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111635462</v>
+        <v>111635499</v>
       </c>
       <c r="B41" t="n">
-        <v>89590</v>
+        <v>85715</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>48</v>
+        <v>510</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539961.7289606878</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R41" t="n">
-        <v>7198365.011824355</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5175,10 +5175,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111635444</v>
+        <v>111635422</v>
       </c>
       <c r="B42" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5191,34 +5191,39 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539849.8711390977</v>
+        <v>539953.4033757704</v>
       </c>
       <c r="R42" t="n">
-        <v>7198368.616090678</v>
+        <v>7198319.890847754</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5250,7 +5255,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5260,7 +5265,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5287,10 +5292,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111635452</v>
+        <v>111635462</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>89590</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5299,25 +5304,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5327,10 +5332,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539861.2921981018</v>
+        <v>539961.7289606878</v>
       </c>
       <c r="R43" t="n">
-        <v>7198404.860384831</v>
+        <v>7198365.011824355</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5362,7 +5367,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5372,7 +5377,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5399,10 +5404,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111635437</v>
+        <v>111634868</v>
       </c>
       <c r="B44" t="n">
-        <v>89845</v>
+        <v>78612</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5411,25 +5416,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1209</v>
+        <v>6464</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5439,10 +5444,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539973.573864806</v>
+        <v>539976.4302002029</v>
       </c>
       <c r="R44" t="n">
-        <v>7198369.416147546</v>
+        <v>7198378.371244119</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5474,7 +5479,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5484,7 +5489,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5499,22 +5504,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111634865</v>
+        <v>111635445</v>
       </c>
       <c r="B45" t="n">
-        <v>90087</v>
+        <v>89686</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5523,25 +5528,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3298</v>
+        <v>658</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5551,10 +5556,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539879.8909062841</v>
+        <v>539972.1173992374</v>
       </c>
       <c r="R45" t="n">
-        <v>7198349.058794393</v>
+        <v>7198351.138093079</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5586,7 +5591,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5596,7 +5601,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5611,22 +5616,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111635461</v>
+        <v>111635444</v>
       </c>
       <c r="B46" t="n">
-        <v>89590</v>
+        <v>89686</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5635,25 +5640,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5663,10 +5668,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539846.9353019162</v>
+        <v>539849.8711390977</v>
       </c>
       <c r="R46" t="n">
-        <v>7198365.604689348</v>
+        <v>7198368.616090678</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5735,10 +5740,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111635413</v>
+        <v>111634866</v>
       </c>
       <c r="B47" t="n">
-        <v>89369</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5747,25 +5752,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5775,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539850.8116781802</v>
+        <v>539873.9909718054</v>
       </c>
       <c r="R47" t="n">
-        <v>7198361.834730743</v>
+        <v>7198345.158619706</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5810,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5820,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5835,22 +5840,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111635445</v>
+        <v>111635452</v>
       </c>
       <c r="B48" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5863,21 +5868,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5887,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539972.1173992374</v>
+        <v>539861.2921981018</v>
       </c>
       <c r="R48" t="n">
-        <v>7198351.138093079</v>
+        <v>7198404.860384831</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5922,7 +5927,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5932,7 +5937,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5959,10 +5964,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111635422</v>
+        <v>111634869</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5975,39 +5980,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539953.4033757704</v>
+        <v>539972.5933666634</v>
       </c>
       <c r="R49" t="n">
-        <v>7198319.890847754</v>
+        <v>7198379.169240371</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6064,22 +6064,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111635489</v>
+        <v>111634865</v>
       </c>
       <c r="B50" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6088,25 +6088,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539945.9506927577</v>
+        <v>539879.8909062841</v>
       </c>
       <c r="R50" t="n">
-        <v>7198336.776317291</v>
+        <v>7198349.058794393</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6176,12 +6176,12 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -4279,10 +4279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111634859</v>
+        <v>111635445</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4295,21 +4295,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539847.161346367</v>
+        <v>539972.1173992374</v>
       </c>
       <c r="R34" t="n">
-        <v>7198348.622951495</v>
+        <v>7198351.138093079</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4379,22 +4379,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111635437</v>
+        <v>111635444</v>
       </c>
       <c r="B35" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4403,25 +4403,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539973.573864806</v>
+        <v>539849.8711390977</v>
       </c>
       <c r="R35" t="n">
-        <v>7198369.416147546</v>
+        <v>7198368.616090678</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4503,7 +4503,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111635489</v>
+        <v>111634866</v>
       </c>
       <c r="B36" t="n">
         <v>77515</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539945.9506927577</v>
+        <v>539873.9909718054</v>
       </c>
       <c r="R36" t="n">
-        <v>7198336.776317291</v>
+        <v>7198345.158619706</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4603,22 +4603,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111634867</v>
+        <v>111635437</v>
       </c>
       <c r="B37" t="n">
-        <v>73696</v>
+        <v>89845</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4627,25 +4627,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6440</v>
+        <v>1209</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539871.8034722162</v>
+        <v>539973.573864806</v>
       </c>
       <c r="R37" t="n">
-        <v>7198349.800304586</v>
+        <v>7198369.416147546</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4715,22 +4715,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111635461</v>
+        <v>111635413</v>
       </c>
       <c r="B38" t="n">
-        <v>89590</v>
+        <v>89369</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4739,25 +4739,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>48</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4767,10 +4767,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539846.9353019162</v>
+        <v>539850.8116781802</v>
       </c>
       <c r="R38" t="n">
-        <v>7198365.604689348</v>
+        <v>7198361.834730743</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4839,10 +4839,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111635419</v>
+        <v>111634865</v>
       </c>
       <c r="B39" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4851,25 +4851,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4879,10 +4879,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539844.8100177459</v>
+        <v>539879.8909062841</v>
       </c>
       <c r="R39" t="n">
-        <v>7198365.57640036</v>
+        <v>7198349.058794393</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4939,22 +4939,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111635413</v>
+        <v>111635489</v>
       </c>
       <c r="B40" t="n">
-        <v>89369</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4963,25 +4963,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539850.8116781802</v>
+        <v>539945.9506927577</v>
       </c>
       <c r="R40" t="n">
-        <v>7198361.834730743</v>
+        <v>7198336.776317291</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5063,10 +5063,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111635499</v>
+        <v>111634867</v>
       </c>
       <c r="B41" t="n">
-        <v>85715</v>
+        <v>73696</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5079,21 +5079,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>510</v>
+        <v>6440</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>540009.9192712342</v>
+        <v>539871.8034722162</v>
       </c>
       <c r="R41" t="n">
-        <v>7198353.766191677</v>
+        <v>7198349.800304586</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5163,22 +5163,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111635422</v>
+        <v>111634859</v>
       </c>
       <c r="B42" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5191,39 +5191,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539953.4033757704</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R42" t="n">
-        <v>7198319.890847754</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5255,7 +5250,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5265,7 +5260,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5280,22 +5275,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111635462</v>
+        <v>111635419</v>
       </c>
       <c r="B43" t="n">
-        <v>89590</v>
+        <v>89405</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5304,25 +5299,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>48</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5332,10 +5327,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539961.7289606878</v>
+        <v>539844.8100177459</v>
       </c>
       <c r="R43" t="n">
-        <v>7198365.011824355</v>
+        <v>7198365.57640036</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5367,7 +5362,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5377,7 +5372,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5516,10 +5511,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111635445</v>
+        <v>111635462</v>
       </c>
       <c r="B45" t="n">
-        <v>89686</v>
+        <v>89590</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5528,25 +5523,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5556,10 +5551,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539972.1173992374</v>
+        <v>539961.7289606878</v>
       </c>
       <c r="R45" t="n">
-        <v>7198351.138093079</v>
+        <v>7198365.011824355</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5628,10 +5623,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111635444</v>
+        <v>111635422</v>
       </c>
       <c r="B46" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5644,34 +5639,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539849.8711390977</v>
+        <v>539953.4033757704</v>
       </c>
       <c r="R46" t="n">
-        <v>7198368.616090678</v>
+        <v>7198319.890847754</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5740,10 +5740,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111634866</v>
+        <v>111635499</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>85715</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5756,21 +5756,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539873.9909718054</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R47" t="n">
-        <v>7198345.158619706</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5840,19 +5840,19 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111635452</v>
+        <v>111634869</v>
       </c>
       <c r="B48" t="n">
         <v>78578</v>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539861.2921981018</v>
+        <v>539972.5933666634</v>
       </c>
       <c r="R48" t="n">
-        <v>7198404.860384831</v>
+        <v>7198379.169240371</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5952,19 +5952,19 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111634869</v>
+        <v>111635452</v>
       </c>
       <c r="B49" t="n">
         <v>78578</v>
@@ -6004,10 +6004,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539972.5933666634</v>
+        <v>539861.2921981018</v>
       </c>
       <c r="R49" t="n">
-        <v>7198379.169240371</v>
+        <v>7198404.860384831</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6064,22 +6064,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111634865</v>
+        <v>111635461</v>
       </c>
       <c r="B50" t="n">
-        <v>90087</v>
+        <v>89590</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6088,25 +6088,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3298</v>
+        <v>48</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539879.8909062841</v>
+        <v>539846.9353019162</v>
       </c>
       <c r="R50" t="n">
-        <v>7198349.058794393</v>
+        <v>7198365.604689348</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6176,12 +6176,12 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -4279,10 +4279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111635445</v>
+        <v>111635413</v>
       </c>
       <c r="B34" t="n">
-        <v>89686</v>
+        <v>89369</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4291,25 +4291,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539972.1173992374</v>
+        <v>539850.8116781802</v>
       </c>
       <c r="R34" t="n">
-        <v>7198351.138093079</v>
+        <v>7198361.834730743</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4503,10 +4503,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111634866</v>
+        <v>111634865</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539873.9909718054</v>
+        <v>539879.8909062841</v>
       </c>
       <c r="R36" t="n">
-        <v>7198345.158619706</v>
+        <v>7198349.058794393</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4615,10 +4615,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111635437</v>
+        <v>111635461</v>
       </c>
       <c r="B37" t="n">
-        <v>89845</v>
+        <v>89590</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4631,21 +4631,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1209</v>
+        <v>48</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539973.573864806</v>
+        <v>539846.9353019162</v>
       </c>
       <c r="R37" t="n">
-        <v>7198369.416147546</v>
+        <v>7198365.604689348</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4727,10 +4727,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111635413</v>
+        <v>111635419</v>
       </c>
       <c r="B38" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4739,25 +4739,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4767,10 +4767,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539850.8116781802</v>
+        <v>539844.8100177459</v>
       </c>
       <c r="R38" t="n">
-        <v>7198361.834730743</v>
+        <v>7198365.57640036</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4839,10 +4839,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111634865</v>
+        <v>111634867</v>
       </c>
       <c r="B39" t="n">
-        <v>90087</v>
+        <v>73696</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4851,25 +4851,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3298</v>
+        <v>6440</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4879,10 +4879,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539879.8909062841</v>
+        <v>539871.8034722162</v>
       </c>
       <c r="R39" t="n">
-        <v>7198349.058794393</v>
+        <v>7198349.800304586</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4951,10 +4951,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111635489</v>
+        <v>111634869</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4967,21 +4967,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539945.9506927577</v>
+        <v>539972.5933666634</v>
       </c>
       <c r="R40" t="n">
-        <v>7198336.776317291</v>
+        <v>7198379.169240371</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5051,22 +5051,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111634867</v>
+        <v>111635462</v>
       </c>
       <c r="B41" t="n">
-        <v>73696</v>
+        <v>89590</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6440</v>
+        <v>48</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539871.8034722162</v>
+        <v>539961.7289606878</v>
       </c>
       <c r="R41" t="n">
-        <v>7198349.800304586</v>
+        <v>7198365.011824355</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5163,19 +5163,19 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111634859</v>
+        <v>111634866</v>
       </c>
       <c r="B42" t="n">
         <v>77515</v>
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539847.161346367</v>
+        <v>539873.9909718054</v>
       </c>
       <c r="R42" t="n">
-        <v>7198348.622951495</v>
+        <v>7198345.158619706</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5287,10 +5287,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111635419</v>
+        <v>111635437</v>
       </c>
       <c r="B43" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5299,25 +5299,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5327,10 +5327,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539844.8100177459</v>
+        <v>539973.573864806</v>
       </c>
       <c r="R43" t="n">
-        <v>7198365.57640036</v>
+        <v>7198369.416147546</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5399,10 +5399,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111634868</v>
+        <v>111635452</v>
       </c>
       <c r="B44" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5411,25 +5411,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5439,10 +5439,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539976.4302002029</v>
+        <v>539861.2921981018</v>
       </c>
       <c r="R44" t="n">
-        <v>7198378.371244119</v>
+        <v>7198404.860384831</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5499,22 +5499,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111635462</v>
+        <v>111635499</v>
       </c>
       <c r="B45" t="n">
-        <v>89590</v>
+        <v>85715</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5523,25 +5523,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>48</v>
+        <v>510</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5551,10 +5551,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539961.7289606878</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R45" t="n">
-        <v>7198365.011824355</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5740,10 +5740,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111635499</v>
+        <v>111634859</v>
       </c>
       <c r="B47" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5756,21 +5756,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>540009.9192712342</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R47" t="n">
-        <v>7198353.766191677</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5840,22 +5840,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111634869</v>
+        <v>111635489</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5868,21 +5868,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539972.5933666634</v>
+        <v>539945.9506927577</v>
       </c>
       <c r="R48" t="n">
-        <v>7198379.169240371</v>
+        <v>7198336.776317291</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5952,22 +5952,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111635452</v>
+        <v>111635445</v>
       </c>
       <c r="B49" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5980,21 +5980,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6004,10 +6004,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539861.2921981018</v>
+        <v>539972.1173992374</v>
       </c>
       <c r="R49" t="n">
-        <v>7198404.860384831</v>
+        <v>7198351.138093079</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6076,10 +6076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111635461</v>
+        <v>111634868</v>
       </c>
       <c r="B50" t="n">
-        <v>89590</v>
+        <v>78612</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6088,25 +6088,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>48</v>
+        <v>6464</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539846.9353019162</v>
+        <v>539976.4302002029</v>
       </c>
       <c r="R50" t="n">
-        <v>7198365.604689348</v>
+        <v>7198378.371244119</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6176,12 +6176,12 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -5740,7 +5740,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111634859</v>
+        <v>111635489</v>
       </c>
       <c r="B47" t="n">
         <v>77515</v>
@@ -5780,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539847.161346367</v>
+        <v>539945.9506927577</v>
       </c>
       <c r="R47" t="n">
-        <v>7198348.622951495</v>
+        <v>7198336.776317291</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5840,19 +5840,19 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111635489</v>
+        <v>111634859</v>
       </c>
       <c r="B48" t="n">
         <v>77515</v>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539945.9506927577</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R48" t="n">
-        <v>7198336.776317291</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5952,12 +5952,12 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -4279,10 +4279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111635413</v>
+        <v>111634869</v>
       </c>
       <c r="B34" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4291,25 +4291,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539850.8116781802</v>
+        <v>539972.5933666634</v>
       </c>
       <c r="R34" t="n">
-        <v>7198361.834730743</v>
+        <v>7198379.169240371</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4379,22 +4379,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111635444</v>
+        <v>111634865</v>
       </c>
       <c r="B35" t="n">
-        <v>89686</v>
+        <v>90087</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4403,25 +4403,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>658</v>
+        <v>3298</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539849.8711390977</v>
+        <v>539879.8909062841</v>
       </c>
       <c r="R35" t="n">
-        <v>7198368.616090678</v>
+        <v>7198349.058794393</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4491,22 +4491,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111634865</v>
+        <v>111635445</v>
       </c>
       <c r="B36" t="n">
-        <v>90087</v>
+        <v>89686</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3298</v>
+        <v>658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539879.8909062841</v>
+        <v>539972.1173992374</v>
       </c>
       <c r="R36" t="n">
-        <v>7198349.058794393</v>
+        <v>7198351.138093079</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4603,22 +4603,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111635461</v>
+        <v>111634866</v>
       </c>
       <c r="B37" t="n">
-        <v>89590</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4627,25 +4627,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539846.9353019162</v>
+        <v>539873.9909718054</v>
       </c>
       <c r="R37" t="n">
-        <v>7198365.604689348</v>
+        <v>7198345.158619706</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4715,22 +4715,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111635419</v>
+        <v>111634859</v>
       </c>
       <c r="B38" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4743,21 +4743,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4767,10 +4767,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539844.8100177459</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R38" t="n">
-        <v>7198365.57640036</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4827,22 +4827,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111634867</v>
+        <v>111635437</v>
       </c>
       <c r="B39" t="n">
-        <v>73696</v>
+        <v>89845</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4851,25 +4851,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6440</v>
+        <v>1209</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4879,10 +4879,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539871.8034722162</v>
+        <v>539973.573864806</v>
       </c>
       <c r="R39" t="n">
-        <v>7198349.800304586</v>
+        <v>7198369.416147546</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4939,22 +4939,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111634869</v>
+        <v>111635444</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4967,21 +4967,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539972.5933666634</v>
+        <v>539849.8711390977</v>
       </c>
       <c r="R40" t="n">
-        <v>7198379.169240371</v>
+        <v>7198368.616090678</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5051,22 +5051,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111635462</v>
+        <v>111635452</v>
       </c>
       <c r="B41" t="n">
-        <v>89590</v>
+        <v>78578</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>48</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539961.7289606878</v>
+        <v>539861.2921981018</v>
       </c>
       <c r="R41" t="n">
-        <v>7198365.011824355</v>
+        <v>7198404.860384831</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5175,10 +5175,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111634866</v>
+        <v>111634868</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5187,25 +5187,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539873.9909718054</v>
+        <v>539976.4302002029</v>
       </c>
       <c r="R42" t="n">
-        <v>7198345.158619706</v>
+        <v>7198378.371244119</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5287,10 +5287,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111635437</v>
+        <v>111635489</v>
       </c>
       <c r="B43" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5299,25 +5299,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5327,10 +5327,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539973.573864806</v>
+        <v>539945.9506927577</v>
       </c>
       <c r="R43" t="n">
-        <v>7198369.416147546</v>
+        <v>7198336.776317291</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5399,10 +5399,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111635452</v>
+        <v>111635461</v>
       </c>
       <c r="B44" t="n">
-        <v>78578</v>
+        <v>89590</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5411,25 +5411,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5439,10 +5439,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539861.2921981018</v>
+        <v>539846.9353019162</v>
       </c>
       <c r="R44" t="n">
-        <v>7198404.860384831</v>
+        <v>7198365.604689348</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5511,10 +5511,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111635499</v>
+        <v>111634867</v>
       </c>
       <c r="B45" t="n">
-        <v>85715</v>
+        <v>73696</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5527,21 +5527,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>510</v>
+        <v>6440</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5551,10 +5551,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>540009.9192712342</v>
+        <v>539871.8034722162</v>
       </c>
       <c r="R45" t="n">
-        <v>7198353.766191677</v>
+        <v>7198349.800304586</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5611,12 +5611,12 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
@@ -5740,10 +5740,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111635489</v>
+        <v>111635499</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>85715</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5756,21 +5756,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539945.9506927577</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R47" t="n">
-        <v>7198336.776317291</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5852,10 +5852,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111634859</v>
+        <v>111635413</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5864,25 +5864,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539847.161346367</v>
+        <v>539850.8116781802</v>
       </c>
       <c r="R48" t="n">
-        <v>7198348.622951495</v>
+        <v>7198361.834730743</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5952,22 +5952,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111635445</v>
+        <v>111635462</v>
       </c>
       <c r="B49" t="n">
-        <v>89686</v>
+        <v>89590</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5976,25 +5976,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6004,10 +6004,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539972.1173992374</v>
+        <v>539961.7289606878</v>
       </c>
       <c r="R49" t="n">
-        <v>7198351.138093079</v>
+        <v>7198365.011824355</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6076,10 +6076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111634868</v>
+        <v>111635419</v>
       </c>
       <c r="B50" t="n">
-        <v>78612</v>
+        <v>89405</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6088,25 +6088,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6464</v>
+        <v>1202</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539976.4302002029</v>
+        <v>539844.8100177459</v>
       </c>
       <c r="R50" t="n">
-        <v>7198378.371244119</v>
+        <v>7198365.57640036</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6176,12 +6176,12 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -5511,10 +5511,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111634867</v>
+        <v>111635422</v>
       </c>
       <c r="B45" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5527,34 +5527,39 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539871.8034722162</v>
+        <v>539953.4033757704</v>
       </c>
       <c r="R45" t="n">
-        <v>7198349.800304586</v>
+        <v>7198319.890847754</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5586,7 +5591,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5596,7 +5601,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5611,22 +5616,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111635422</v>
+        <v>111635499</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>85715</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5639,39 +5644,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539953.4033757704</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R46" t="n">
-        <v>7198319.890847754</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5740,10 +5740,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111635499</v>
+        <v>111635413</v>
       </c>
       <c r="B47" t="n">
-        <v>85715</v>
+        <v>89369</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5752,25 +5752,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>510</v>
+        <v>5447</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>540009.9192712342</v>
+        <v>539850.8116781802</v>
       </c>
       <c r="R47" t="n">
-        <v>7198353.766191677</v>
+        <v>7198361.834730743</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5852,10 +5852,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111635413</v>
+        <v>111634867</v>
       </c>
       <c r="B48" t="n">
-        <v>89369</v>
+        <v>73696</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5864,25 +5864,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539850.8116781802</v>
+        <v>539871.8034722162</v>
       </c>
       <c r="R48" t="n">
-        <v>7198361.834730743</v>
+        <v>7198349.800304586</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5952,12 +5952,12 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -4279,10 +4279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111634869</v>
+        <v>111634859</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4295,21 +4295,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539972.5933666634</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R34" t="n">
-        <v>7198379.169240371</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4391,10 +4391,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111634865</v>
+        <v>111634868</v>
       </c>
       <c r="B35" t="n">
-        <v>90087</v>
+        <v>78612</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4407,21 +4407,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3298</v>
+        <v>6464</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539879.8909062841</v>
+        <v>539976.4302002029</v>
       </c>
       <c r="R35" t="n">
-        <v>7198349.058794393</v>
+        <v>7198378.371244119</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4503,10 +4503,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111635445</v>
+        <v>111634869</v>
       </c>
       <c r="B36" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4519,21 +4519,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539972.1173992374</v>
+        <v>539972.5933666634</v>
       </c>
       <c r="R36" t="n">
-        <v>7198351.138093079</v>
+        <v>7198379.169240371</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4603,19 +4603,19 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111634866</v>
+        <v>111635489</v>
       </c>
       <c r="B37" t="n">
         <v>77515</v>
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539873.9909718054</v>
+        <v>539945.9506927577</v>
       </c>
       <c r="R37" t="n">
-        <v>7198345.158619706</v>
+        <v>7198336.776317291</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4715,22 +4715,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111634859</v>
+        <v>111635422</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4743,34 +4743,39 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539847.161346367</v>
+        <v>539953.4033757704</v>
       </c>
       <c r="R38" t="n">
-        <v>7198348.622951495</v>
+        <v>7198319.890847754</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4802,7 +4807,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4812,7 +4817,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4827,12 +4832,12 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
@@ -4951,10 +4956,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111635444</v>
+        <v>111634866</v>
       </c>
       <c r="B40" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4967,21 +4972,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +4996,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539849.8711390977</v>
+        <v>539873.9909718054</v>
       </c>
       <c r="R40" t="n">
-        <v>7198368.616090678</v>
+        <v>7198345.158619706</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5031,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5041,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5051,12 +5056,12 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
@@ -5175,10 +5180,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111634868</v>
+        <v>111634865</v>
       </c>
       <c r="B42" t="n">
-        <v>78612</v>
+        <v>90087</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5191,21 +5196,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6464</v>
+        <v>3298</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5215,10 +5220,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539976.4302002029</v>
+        <v>539879.8909062841</v>
       </c>
       <c r="R42" t="n">
-        <v>7198378.371244119</v>
+        <v>7198349.058794393</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5250,7 +5255,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5260,7 +5265,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5287,10 +5292,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111635489</v>
+        <v>111634867</v>
       </c>
       <c r="B43" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5303,21 +5308,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5327,10 +5332,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539945.9506927577</v>
+        <v>539871.8034722162</v>
       </c>
       <c r="R43" t="n">
-        <v>7198336.776317291</v>
+        <v>7198349.800304586</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5362,7 +5367,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5372,7 +5377,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5387,22 +5392,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111635461</v>
+        <v>111635413</v>
       </c>
       <c r="B44" t="n">
-        <v>89590</v>
+        <v>89369</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5411,25 +5416,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>48</v>
+        <v>5447</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5439,10 +5444,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539846.9353019162</v>
+        <v>539850.8116781802</v>
       </c>
       <c r="R44" t="n">
-        <v>7198365.604689348</v>
+        <v>7198361.834730743</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5474,7 +5479,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5484,7 +5489,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5511,10 +5516,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111635422</v>
+        <v>111635462</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>89590</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5523,43 +5528,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>48</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539953.4033757704</v>
+        <v>539961.7289606878</v>
       </c>
       <c r="R45" t="n">
-        <v>7198319.890847754</v>
+        <v>7198365.011824355</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5628,10 +5628,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111635499</v>
+        <v>111635444</v>
       </c>
       <c r="B46" t="n">
-        <v>85715</v>
+        <v>89686</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5644,21 +5644,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>510</v>
+        <v>658</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5668,10 +5668,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>540009.9192712342</v>
+        <v>539849.8711390977</v>
       </c>
       <c r="R46" t="n">
-        <v>7198353.766191677</v>
+        <v>7198368.616090678</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5740,10 +5740,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111635413</v>
+        <v>111635445</v>
       </c>
       <c r="B47" t="n">
-        <v>89369</v>
+        <v>89686</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5752,25 +5752,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5447</v>
+        <v>658</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539850.8116781802</v>
+        <v>539972.1173992374</v>
       </c>
       <c r="R47" t="n">
-        <v>7198361.834730743</v>
+        <v>7198351.138093079</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5852,10 +5852,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111634867</v>
+        <v>111635461</v>
       </c>
       <c r="B48" t="n">
-        <v>73696</v>
+        <v>89590</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5864,25 +5864,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6440</v>
+        <v>48</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539871.8034722162</v>
+        <v>539846.9353019162</v>
       </c>
       <c r="R48" t="n">
-        <v>7198349.800304586</v>
+        <v>7198365.604689348</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5952,22 +5952,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111635462</v>
+        <v>111635419</v>
       </c>
       <c r="B49" t="n">
-        <v>89590</v>
+        <v>89405</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5976,25 +5976,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>48</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6004,10 +6004,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539961.7289606878</v>
+        <v>539844.8100177459</v>
       </c>
       <c r="R49" t="n">
-        <v>7198365.011824355</v>
+        <v>7198365.57640036</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6076,10 +6076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111635419</v>
+        <v>111635499</v>
       </c>
       <c r="B50" t="n">
-        <v>89405</v>
+        <v>85715</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6092,21 +6092,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539844.8100177459</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R50" t="n">
-        <v>7198365.57640036</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD50" t="b">

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -4279,10 +4279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111634859</v>
+        <v>111635445</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4295,21 +4295,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539847.161346367</v>
+        <v>539972.1173992374</v>
       </c>
       <c r="R34" t="n">
-        <v>7198348.622951495</v>
+        <v>7198351.138093079</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4379,22 +4379,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111634868</v>
+        <v>111635444</v>
       </c>
       <c r="B35" t="n">
-        <v>78612</v>
+        <v>89686</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4403,25 +4403,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6464</v>
+        <v>658</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539976.4302002029</v>
+        <v>539849.8711390977</v>
       </c>
       <c r="R35" t="n">
-        <v>7198378.371244119</v>
+        <v>7198368.616090678</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4491,22 +4491,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111634869</v>
+        <v>111634866</v>
       </c>
       <c r="B36" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4519,21 +4519,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539972.5933666634</v>
+        <v>539873.9909718054</v>
       </c>
       <c r="R36" t="n">
-        <v>7198379.169240371</v>
+        <v>7198345.158619706</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4615,10 +4615,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111635489</v>
+        <v>111634867</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4631,21 +4631,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539945.9506927577</v>
+        <v>539871.8034722162</v>
       </c>
       <c r="R37" t="n">
-        <v>7198336.776317291</v>
+        <v>7198349.800304586</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4715,22 +4715,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111635422</v>
+        <v>111635452</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4743,39 +4743,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539953.4033757704</v>
+        <v>539861.2921981018</v>
       </c>
       <c r="R38" t="n">
-        <v>7198319.890847754</v>
+        <v>7198404.860384831</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4807,7 +4802,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4817,7 +4812,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4844,10 +4839,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111635437</v>
+        <v>111635489</v>
       </c>
       <c r="B39" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4856,25 +4851,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4884,10 +4879,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539973.573864806</v>
+        <v>539945.9506927577</v>
       </c>
       <c r="R39" t="n">
-        <v>7198369.416147546</v>
+        <v>7198336.776317291</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4919,7 +4914,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4929,7 +4924,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4956,10 +4951,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111634866</v>
+        <v>111635461</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>89590</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4968,25 +4963,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>48</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4996,10 +4991,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539873.9909718054</v>
+        <v>539846.9353019162</v>
       </c>
       <c r="R40" t="n">
-        <v>7198345.158619706</v>
+        <v>7198365.604689348</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5031,7 +5026,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5041,7 +5036,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5056,22 +5051,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111635452</v>
+        <v>111634859</v>
       </c>
       <c r="B41" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5084,21 +5079,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5108,10 +5103,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539861.2921981018</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R41" t="n">
-        <v>7198404.860384831</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5143,7 +5138,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5153,7 +5148,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5168,22 +5163,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111634865</v>
+        <v>111634868</v>
       </c>
       <c r="B42" t="n">
-        <v>90087</v>
+        <v>78612</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5196,21 +5191,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3298</v>
+        <v>6464</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5220,10 +5215,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539879.8909062841</v>
+        <v>539976.4302002029</v>
       </c>
       <c r="R42" t="n">
-        <v>7198349.058794393</v>
+        <v>7198378.371244119</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5255,7 +5250,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5265,7 +5260,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5292,10 +5287,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111634867</v>
+        <v>111635413</v>
       </c>
       <c r="B43" t="n">
-        <v>73696</v>
+        <v>89369</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5304,25 +5299,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6440</v>
+        <v>5447</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5332,10 +5327,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539871.8034722162</v>
+        <v>539850.8116781802</v>
       </c>
       <c r="R43" t="n">
-        <v>7198349.800304586</v>
+        <v>7198361.834730743</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5367,7 +5362,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5377,7 +5372,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5392,22 +5387,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111635413</v>
+        <v>111635499</v>
       </c>
       <c r="B44" t="n">
-        <v>89369</v>
+        <v>85715</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5416,25 +5411,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5447</v>
+        <v>510</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5444,10 +5439,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539850.8116781802</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R44" t="n">
-        <v>7198361.834730743</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5479,7 +5474,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5489,7 +5484,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5516,10 +5511,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111635462</v>
+        <v>111635422</v>
       </c>
       <c r="B45" t="n">
-        <v>89590</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5528,38 +5523,43 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>48</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539961.7289606878</v>
+        <v>539953.4033757704</v>
       </c>
       <c r="R45" t="n">
-        <v>7198365.011824355</v>
+        <v>7198319.890847754</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5628,10 +5628,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111635444</v>
+        <v>111635462</v>
       </c>
       <c r="B46" t="n">
-        <v>89686</v>
+        <v>89590</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5640,25 +5640,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5668,10 +5668,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539849.8711390977</v>
+        <v>539961.7289606878</v>
       </c>
       <c r="R46" t="n">
-        <v>7198368.616090678</v>
+        <v>7198365.011824355</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5740,10 +5740,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111635445</v>
+        <v>111634869</v>
       </c>
       <c r="B47" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5756,21 +5756,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539972.1173992374</v>
+        <v>539972.5933666634</v>
       </c>
       <c r="R47" t="n">
-        <v>7198351.138093079</v>
+        <v>7198379.169240371</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5840,22 +5840,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111635461</v>
+        <v>111634865</v>
       </c>
       <c r="B48" t="n">
-        <v>89590</v>
+        <v>90087</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5864,25 +5864,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>48</v>
+        <v>3298</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539846.9353019162</v>
+        <v>539879.8909062841</v>
       </c>
       <c r="R48" t="n">
-        <v>7198365.604689348</v>
+        <v>7198349.058794393</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5952,22 +5952,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111635419</v>
+        <v>111635437</v>
       </c>
       <c r="B49" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5976,25 +5976,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6004,10 +6004,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539844.8100177459</v>
+        <v>539973.573864806</v>
       </c>
       <c r="R49" t="n">
-        <v>7198365.57640036</v>
+        <v>7198369.416147546</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6076,10 +6076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111635499</v>
+        <v>111635419</v>
       </c>
       <c r="B50" t="n">
-        <v>85715</v>
+        <v>89405</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6092,21 +6092,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>540009.9192712342</v>
+        <v>539844.8100177459</v>
       </c>
       <c r="R50" t="n">
-        <v>7198353.766191677</v>
+        <v>7198365.57640036</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD50" t="b">

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -4279,10 +4279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111635445</v>
+        <v>111635462</v>
       </c>
       <c r="B34" t="n">
-        <v>89686</v>
+        <v>89590</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4291,25 +4291,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539972.1173992374</v>
+        <v>539961.7289606878</v>
       </c>
       <c r="R34" t="n">
-        <v>7198351.138093079</v>
+        <v>7198365.011824355</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111635444</v>
+        <v>111634867</v>
       </c>
       <c r="B35" t="n">
-        <v>89686</v>
+        <v>73696</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4407,21 +4407,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539849.8711390977</v>
+        <v>539871.8034722162</v>
       </c>
       <c r="R35" t="n">
-        <v>7198368.616090678</v>
+        <v>7198349.800304586</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4491,12 +4491,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111634867</v>
+        <v>111635437</v>
       </c>
       <c r="B37" t="n">
-        <v>73696</v>
+        <v>89845</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4627,25 +4627,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6440</v>
+        <v>1209</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539871.8034722162</v>
+        <v>539973.573864806</v>
       </c>
       <c r="R37" t="n">
-        <v>7198349.800304586</v>
+        <v>7198369.416147546</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4715,19 +4715,19 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111635452</v>
+        <v>111634869</v>
       </c>
       <c r="B38" t="n">
         <v>78578</v>
@@ -4767,10 +4767,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539861.2921981018</v>
+        <v>539972.5933666634</v>
       </c>
       <c r="R38" t="n">
-        <v>7198404.860384831</v>
+        <v>7198379.169240371</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4827,22 +4827,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111635489</v>
+        <v>111634868</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4851,25 +4851,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4879,10 +4879,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539945.9506927577</v>
+        <v>539976.4302002029</v>
       </c>
       <c r="R39" t="n">
-        <v>7198336.776317291</v>
+        <v>7198378.371244119</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4939,22 +4939,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111635461</v>
+        <v>111634865</v>
       </c>
       <c r="B40" t="n">
-        <v>89590</v>
+        <v>90087</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4963,25 +4963,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>48</v>
+        <v>3298</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539846.9353019162</v>
+        <v>539879.8909062841</v>
       </c>
       <c r="R40" t="n">
-        <v>7198365.604689348</v>
+        <v>7198349.058794393</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5051,12 +5051,12 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111634868</v>
+        <v>111635499</v>
       </c>
       <c r="B42" t="n">
-        <v>78612</v>
+        <v>85715</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5187,25 +5187,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6464</v>
+        <v>510</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539976.4302002029</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R42" t="n">
-        <v>7198378.371244119</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5275,22 +5275,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111635413</v>
+        <v>111635444</v>
       </c>
       <c r="B43" t="n">
-        <v>89369</v>
+        <v>89686</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5299,25 +5299,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5447</v>
+        <v>658</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5327,10 +5327,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539850.8116781802</v>
+        <v>539849.8711390977</v>
       </c>
       <c r="R43" t="n">
-        <v>7198361.834730743</v>
+        <v>7198368.616090678</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5399,10 +5399,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111635499</v>
+        <v>111635413</v>
       </c>
       <c r="B44" t="n">
-        <v>85715</v>
+        <v>89369</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5411,25 +5411,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>510</v>
+        <v>5447</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5439,10 +5439,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>540009.9192712342</v>
+        <v>539850.8116781802</v>
       </c>
       <c r="R44" t="n">
-        <v>7198353.766191677</v>
+        <v>7198361.834730743</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5511,10 +5511,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111635422</v>
+        <v>111635489</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5527,39 +5527,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539953.4033757704</v>
+        <v>539945.9506927577</v>
       </c>
       <c r="R45" t="n">
-        <v>7198319.890847754</v>
+        <v>7198336.776317291</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5591,7 +5586,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5601,7 +5596,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5628,10 +5623,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111635462</v>
+        <v>111635419</v>
       </c>
       <c r="B46" t="n">
-        <v>89590</v>
+        <v>89405</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5640,25 +5635,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>48</v>
+        <v>1202</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5668,10 +5663,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539961.7289606878</v>
+        <v>539844.8100177459</v>
       </c>
       <c r="R46" t="n">
-        <v>7198365.011824355</v>
+        <v>7198365.57640036</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5703,7 +5698,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5713,7 +5708,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5740,10 +5735,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111634869</v>
+        <v>111635445</v>
       </c>
       <c r="B47" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5756,21 +5751,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,10 +5775,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539972.5933666634</v>
+        <v>539972.1173992374</v>
       </c>
       <c r="R47" t="n">
-        <v>7198379.169240371</v>
+        <v>7198351.138093079</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5810,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5820,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5840,22 +5835,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111634865</v>
+        <v>111635461</v>
       </c>
       <c r="B48" t="n">
-        <v>90087</v>
+        <v>89590</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5864,25 +5859,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3298</v>
+        <v>48</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5887,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539879.8909062841</v>
+        <v>539846.9353019162</v>
       </c>
       <c r="R48" t="n">
-        <v>7198349.058794393</v>
+        <v>7198365.604689348</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5922,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5932,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5952,22 +5947,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111635437</v>
+        <v>111635422</v>
       </c>
       <c r="B49" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5976,38 +5971,43 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539973.573864806</v>
+        <v>539953.4033757704</v>
       </c>
       <c r="R49" t="n">
-        <v>7198369.416147546</v>
+        <v>7198319.890847754</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6076,10 +6076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111635419</v>
+        <v>111635452</v>
       </c>
       <c r="B50" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6092,21 +6092,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539844.8100177459</v>
+        <v>539861.2921981018</v>
       </c>
       <c r="R50" t="n">
-        <v>7198365.57640036</v>
+        <v>7198404.860384831</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD50" t="b">

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -4951,10 +4951,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111634865</v>
+        <v>111635499</v>
       </c>
       <c r="B40" t="n">
-        <v>90087</v>
+        <v>85715</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4963,25 +4963,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3298</v>
+        <v>510</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539879.8909062841</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R40" t="n">
-        <v>7198349.058794393</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5051,22 +5051,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111634859</v>
+        <v>111634865</v>
       </c>
       <c r="B41" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539847.161346367</v>
+        <v>539879.8909062841</v>
       </c>
       <c r="R41" t="n">
-        <v>7198348.622951495</v>
+        <v>7198349.058794393</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5175,10 +5175,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111635499</v>
+        <v>111634859</v>
       </c>
       <c r="B42" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5191,21 +5191,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>540009.9192712342</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R42" t="n">
-        <v>7198353.766191677</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5275,12 +5275,12 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -4279,10 +4279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111635462</v>
+        <v>111634869</v>
       </c>
       <c r="B34" t="n">
-        <v>89590</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4291,25 +4291,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>48</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539961.7289606878</v>
+        <v>539972.5933666634</v>
       </c>
       <c r="R34" t="n">
-        <v>7198365.011824355</v>
+        <v>7198379.169240371</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4379,22 +4379,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111634867</v>
+        <v>111635445</v>
       </c>
       <c r="B35" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4407,21 +4407,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539871.8034722162</v>
+        <v>539972.1173992374</v>
       </c>
       <c r="R35" t="n">
-        <v>7198349.800304586</v>
+        <v>7198351.138093079</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4491,22 +4491,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111634866</v>
+        <v>111635499</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>85715</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4519,21 +4519,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539873.9909718054</v>
+        <v>540009.9192712342</v>
       </c>
       <c r="R36" t="n">
-        <v>7198345.158619706</v>
+        <v>7198353.766191677</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4603,22 +4603,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111635437</v>
+        <v>111634868</v>
       </c>
       <c r="B37" t="n">
-        <v>89845</v>
+        <v>78612</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4627,25 +4627,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1209</v>
+        <v>6464</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539973.573864806</v>
+        <v>539976.4302002029</v>
       </c>
       <c r="R37" t="n">
-        <v>7198369.416147546</v>
+        <v>7198378.371244119</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4715,19 +4715,19 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111634869</v>
+        <v>111635452</v>
       </c>
       <c r="B38" t="n">
         <v>78578</v>
@@ -4767,10 +4767,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539972.5933666634</v>
+        <v>539861.2921981018</v>
       </c>
       <c r="R38" t="n">
-        <v>7198379.169240371</v>
+        <v>7198404.860384831</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4827,22 +4827,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111634868</v>
+        <v>111635437</v>
       </c>
       <c r="B39" t="n">
-        <v>78612</v>
+        <v>89845</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4851,25 +4851,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6464</v>
+        <v>1209</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4879,10 +4879,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539976.4302002029</v>
+        <v>539973.573864806</v>
       </c>
       <c r="R39" t="n">
-        <v>7198378.371244119</v>
+        <v>7198369.416147546</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4939,22 +4939,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111635499</v>
+        <v>111635489</v>
       </c>
       <c r="B40" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4967,21 +4967,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>540009.9192712342</v>
+        <v>539945.9506927577</v>
       </c>
       <c r="R40" t="n">
-        <v>7198353.766191677</v>
+        <v>7198336.776317291</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5063,10 +5063,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111634865</v>
+        <v>111635413</v>
       </c>
       <c r="B41" t="n">
-        <v>90087</v>
+        <v>89369</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5079,21 +5079,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3298</v>
+        <v>5447</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539879.8909062841</v>
+        <v>539850.8116781802</v>
       </c>
       <c r="R41" t="n">
-        <v>7198349.058794393</v>
+        <v>7198361.834730743</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5163,22 +5163,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111634859</v>
+        <v>111634865</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5187,25 +5187,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539847.161346367</v>
+        <v>539879.8909062841</v>
       </c>
       <c r="R42" t="n">
-        <v>7198348.622951495</v>
+        <v>7198349.058794393</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5287,10 +5287,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111635444</v>
+        <v>111635422</v>
       </c>
       <c r="B43" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5303,34 +5303,39 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539849.8711390977</v>
+        <v>539953.4033757704</v>
       </c>
       <c r="R43" t="n">
-        <v>7198368.616090678</v>
+        <v>7198319.890847754</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5362,7 +5367,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5372,7 +5377,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5399,10 +5404,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111635413</v>
+        <v>111634867</v>
       </c>
       <c r="B44" t="n">
-        <v>89369</v>
+        <v>73696</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5411,25 +5416,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5439,10 +5444,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539850.8116781802</v>
+        <v>539871.8034722162</v>
       </c>
       <c r="R44" t="n">
-        <v>7198361.834730743</v>
+        <v>7198349.800304586</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5474,7 +5479,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5484,7 +5489,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5499,22 +5504,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111635489</v>
+        <v>111635444</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5527,21 +5532,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5551,10 +5556,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539945.9506927577</v>
+        <v>539849.8711390977</v>
       </c>
       <c r="R45" t="n">
-        <v>7198336.776317291</v>
+        <v>7198368.616090678</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5586,7 +5591,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5596,7 +5601,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5623,10 +5628,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111635419</v>
+        <v>111634866</v>
       </c>
       <c r="B46" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5639,21 +5644,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5663,10 +5668,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539844.8100177459</v>
+        <v>539873.9909718054</v>
       </c>
       <c r="R46" t="n">
-        <v>7198365.57640036</v>
+        <v>7198345.158619706</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5698,7 +5703,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5708,7 +5713,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5723,22 +5728,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111635445</v>
+        <v>111634859</v>
       </c>
       <c r="B47" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5751,21 +5756,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5775,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539972.1173992374</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R47" t="n">
-        <v>7198351.138093079</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5810,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5820,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5835,12 +5840,12 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
@@ -5959,10 +5964,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111635422</v>
+        <v>111635462</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>89590</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5971,43 +5976,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>48</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539953.4033757704</v>
+        <v>539961.7289606878</v>
       </c>
       <c r="R49" t="n">
-        <v>7198319.890847754</v>
+        <v>7198365.011824355</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6076,10 +6076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111635452</v>
+        <v>111635419</v>
       </c>
       <c r="B50" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6092,21 +6092,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539861.2921981018</v>
+        <v>539844.8100177459</v>
       </c>
       <c r="R50" t="n">
-        <v>7198404.860384831</v>
+        <v>7198365.57640036</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD50" t="b">

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -5740,10 +5740,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111634859</v>
+        <v>111635461</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>89590</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5752,25 +5752,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>48</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539847.161346367</v>
+        <v>539846.9353019162</v>
       </c>
       <c r="R47" t="n">
-        <v>7198348.622951495</v>
+        <v>7198365.604689348</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5840,22 +5840,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111635461</v>
+        <v>111634859</v>
       </c>
       <c r="B48" t="n">
-        <v>89590</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5864,25 +5864,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>48</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539846.9353019162</v>
+        <v>539847.161346367</v>
       </c>
       <c r="R48" t="n">
-        <v>7198365.604689348</v>
+        <v>7198348.622951495</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5952,12 +5952,12 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>

--- a/artfynd/A 11282-2021.xlsx
+++ b/artfynd/A 11282-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY50"/>
+  <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4279,10 +4279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111634869</v>
+        <v>111635461</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>89590</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4291,25 +4291,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539972.5933666634</v>
+        <v>539847</v>
       </c>
       <c r="R34" t="n">
-        <v>7198379.169240371</v>
+        <v>7198366</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4379,22 +4379,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111635445</v>
+        <v>111635422</v>
       </c>
       <c r="B35" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4407,34 +4407,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539972.1173992374</v>
+        <v>539953</v>
       </c>
       <c r="R35" t="n">
-        <v>7198351.138093079</v>
+        <v>7198320</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4466,7 +4471,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4476,7 +4481,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4503,10 +4508,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111635499</v>
+        <v>111635419</v>
       </c>
       <c r="B36" t="n">
-        <v>85715</v>
+        <v>89405</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4519,21 +4524,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4543,10 +4548,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>540009.9192712342</v>
+        <v>539845</v>
       </c>
       <c r="R36" t="n">
-        <v>7198353.766191677</v>
+        <v>7198366</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4578,7 +4583,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4588,7 +4593,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4615,10 +4620,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111634868</v>
+        <v>111634859</v>
       </c>
       <c r="B37" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4627,25 +4632,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4655,10 +4660,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539976.4302002029</v>
+        <v>539847</v>
       </c>
       <c r="R37" t="n">
-        <v>7198378.371244119</v>
+        <v>7198349</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4690,7 +4695,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4700,7 +4705,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4727,10 +4732,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111635452</v>
+        <v>111634867</v>
       </c>
       <c r="B38" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4743,21 +4748,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4767,10 +4772,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539861.2921981018</v>
+        <v>539872</v>
       </c>
       <c r="R38" t="n">
-        <v>7198404.860384831</v>
+        <v>7198350</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4802,7 +4807,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4812,7 +4817,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4827,22 +4832,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111635437</v>
+        <v>111634866</v>
       </c>
       <c r="B39" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4851,25 +4856,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4879,10 +4884,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539973.573864806</v>
+        <v>539874</v>
       </c>
       <c r="R39" t="n">
-        <v>7198369.416147546</v>
+        <v>7198345</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4914,7 +4919,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4924,7 +4929,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4939,22 +4944,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111635489</v>
+        <v>111635452</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4967,21 +4972,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4991,10 +4996,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539945.9506927577</v>
+        <v>539861</v>
       </c>
       <c r="R40" t="n">
-        <v>7198336.776317291</v>
+        <v>7198405</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5026,7 +5031,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5036,7 +5041,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5063,10 +5068,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111635413</v>
+        <v>111635444</v>
       </c>
       <c r="B41" t="n">
-        <v>89369</v>
+        <v>89686</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5075,25 +5080,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5447</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5103,10 +5108,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539850.8116781802</v>
+        <v>539850</v>
       </c>
       <c r="R41" t="n">
-        <v>7198361.834730743</v>
+        <v>7198369</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5138,7 +5143,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5148,7 +5153,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5175,10 +5180,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111634865</v>
+        <v>111635489</v>
       </c>
       <c r="B42" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5187,25 +5192,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5215,10 +5220,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539879.8909062841</v>
+        <v>539946</v>
       </c>
       <c r="R42" t="n">
-        <v>7198349.058794393</v>
+        <v>7198337</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5250,7 +5255,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5260,7 +5265,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5275,22 +5280,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111635422</v>
+        <v>111634865</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5299,43 +5304,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539953.4033757704</v>
+        <v>539880</v>
       </c>
       <c r="R43" t="n">
-        <v>7198319.890847754</v>
+        <v>7198349</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5392,22 +5392,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111634867</v>
+        <v>111634870</v>
       </c>
       <c r="B44" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5420,21 +5420,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5444,10 +5444,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539871.8034722162</v>
+        <v>539973</v>
       </c>
       <c r="R44" t="n">
-        <v>7198349.800304586</v>
+        <v>7198378</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5516,10 +5516,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111635444</v>
+        <v>111634869</v>
       </c>
       <c r="B45" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5532,21 +5532,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5556,10 +5556,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539849.8711390977</v>
+        <v>539973</v>
       </c>
       <c r="R45" t="n">
-        <v>7198368.616090678</v>
+        <v>7198379</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5616,22 +5616,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Yasmine Kindlund, Isak Vahlström</t>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111634866</v>
+        <v>111635413</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5640,25 +5640,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5668,10 +5668,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539873.9909718054</v>
+        <v>539851</v>
       </c>
       <c r="R46" t="n">
-        <v>7198345.158619706</v>
+        <v>7198362</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5728,22 +5728,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111635461</v>
+        <v>111635499</v>
       </c>
       <c r="B47" t="n">
-        <v>89590</v>
+        <v>85715</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5752,25 +5752,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>48</v>
+        <v>510</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539846.9353019162</v>
+        <v>540010</v>
       </c>
       <c r="R47" t="n">
-        <v>7198365.604689348</v>
+        <v>7198354</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5852,10 +5852,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111634859</v>
+        <v>111635462</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>89590</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5864,25 +5864,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>48</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539847.161346367</v>
+        <v>539962</v>
       </c>
       <c r="R48" t="n">
-        <v>7198348.622951495</v>
+        <v>7198365</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5952,22 +5952,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Yasmine Kindlund</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Yasmine Kindlund</t>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111635462</v>
+        <v>111635437</v>
       </c>
       <c r="B49" t="n">
-        <v>89590</v>
+        <v>89845</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5980,21 +5980,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>48</v>
+        <v>1209</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6004,10 +6004,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539961.7289606878</v>
+        <v>539974</v>
       </c>
       <c r="R49" t="n">
-        <v>7198365.011824355</v>
+        <v>7198369</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6076,10 +6076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111635419</v>
+        <v>111634868</v>
       </c>
       <c r="B50" t="n">
-        <v>89405</v>
+        <v>78612</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6088,25 +6088,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>6464</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539844.8100177459</v>
+        <v>539976</v>
       </c>
       <c r="R50" t="n">
-        <v>7198365.57640036</v>
+        <v>7198378</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6176,15 +6176,127 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>111635445</v>
+      </c>
+      <c r="B51" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>658</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Gäddbäcksberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>539972</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7198351</v>
+      </c>
+      <c r="S51" t="n">
+        <v>25</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
           <t>Yasmine Kindlund</t>
         </is>
       </c>
-      <c r="AX50" t="inlineStr">
+      <c r="AX51" t="inlineStr">
         <is>
           <t>Yasmine Kindlund, Isak Vahlström</t>
         </is>
       </c>
-      <c r="AY50" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
